--- a/baseline_model_workshop/data/Storm_impact_1851.xlsx
+++ b/baseline_model_workshop/data/Storm_impact_1851.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6DEAB7-B981-465B-9FF3-2353247A40C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9EF4F5-93B2-4667-9176-5DD41C47295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,11 +408,11 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <f>B2/150</f>
-        <v>8.666666666666667E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -420,11 +420,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C7" si="0">B3/150</f>
-        <v>0.19333333333333333</v>
+        <v>2.6666666666666668E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -432,11 +432,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.22666666666666666</v>
+        <v>0.10666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -444,11 +444,11 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,11 +456,11 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.58666666666666667</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -468,11 +468,11 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/baseline_model_workshop/data/Storm_impact_1851.xlsx
+++ b/baseline_model_workshop/data/Storm_impact_1851.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9EF4F5-93B2-4667-9176-5DD41C47295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD897275-34FC-46C2-AC71-7D7F7F47A5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,11 +408,11 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>B2/150</f>
-        <v>1.3333333333333334E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -420,11 +420,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C7" si="0">B3/150</f>
-        <v>2.6666666666666668E-2</v>
+        <v>6.6666666666666671E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -432,11 +432,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10666666666666667</v>
+        <v>2.6666666666666668E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -444,11 +444,11 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,11 +456,11 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -468,11 +468,11 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
